--- a/3-Statement Model.xlsx
+++ b/3-Statement Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yash/Desktop/Job Search/04_Portfolio/FMVA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yash/Desktop/Job Search/01_Resume/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF46B80E-1288-F445-9E58-E4612323E598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04603DC7-28FA-294E-9462-3D816D362EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="820" windowWidth="14480" windowHeight="17000" activeTab="1" xr2:uid="{BF3D2BD5-3565-4B0B-8265-0C0C1F0B094C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{BF3D2BD5-3565-4B0B-8265-0C0C1F0B094C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="12" r:id="rId1"/>
@@ -4128,7 +4128,7 @@
   </sheetPr>
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
@@ -4762,7 +4762,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="64" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="N16:N20 N21:N22" unlockedFormula="1"/>
   </ignoredErrors>
@@ -4776,8 +4776,8 @@
   </sheetPr>
   <dimension ref="A2:S225"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="T191" sqref="T191"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -10270,12 +10270,9 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Open Sans,Bold"&amp;K002060Introduction to 3-Statement Modeling&amp;C&amp;"Open Sans,Bold"&amp;K002060Page &amp;P of &amp;N&amp;R&amp;6&amp;G</oddFooter>
-  </headerFooter>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
-  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>